--- a/shells/sift/XRQv2/samples_genes.xlsx
+++ b/shells/sift/XRQv2/samples_genes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisakman/GoogleDrive/is/Sunflower/git/shells/sift/XRQv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E171B0-56E1-FA49-BC00-DF609482E1C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5F246-37A9-D14F-892D-3A7B0F9636FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18100" yWindow="460" windowWidth="10000" windowHeight="16700" xr2:uid="{7D6502C5-7F7A-C244-A1EE-CB2D29AD69E9}"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="18580" windowHeight="16700" xr2:uid="{7D6502C5-7F7A-C244-A1EE-CB2D29AD69E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4573,10 +4573,10 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
